--- a/PythonResources/Data/Consumption/Sympheny/post_1676_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1676_coo.xlsx
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>9.963330951642694</v>
+        <v>9.963330951642693</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>7.283899673577478</v>
+        <v>7.283899673577477</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>15.71643266898037</v>
+        <v>15.71643266898036</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>36.44045294715168</v>
+        <v>36.44045294715167</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>49.87922542496767</v>
+        <v>49.87922542496766</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>58.76308781990903</v>
+        <v>58.76308781990902</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>60.25100948319268</v>
+        <v>60.25100948319267</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>31.68332384760072</v>
+        <v>31.68332384760071</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>41.34704827641992</v>
+        <v>41.34704827641991</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>47.01064609855042</v>
+        <v>47.01064609855041</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>58.56936786335388</v>
+        <v>58.56936786335387</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>62.10556301584167</v>
+        <v>62.10556301584166</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>73.96585487942765</v>
+        <v>73.96585487942764</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31943,7 +31943,7 @@
         <v>3950</v>
       </c>
       <c r="B3950">
-        <v>71.72972285444159</v>
+        <v>71.72972285444158</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>54.90099767242982</v>
+        <v>54.90099767242981</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>56.62044545625593</v>
+        <v>56.62044545625592</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>62.62810867777485</v>
+        <v>62.62810867777484</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>71.6098567996291</v>
+        <v>71.60985679962909</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>50.00671132678535</v>
+        <v>50.00671132678534</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>56.55919360917571</v>
+        <v>56.5591936091757</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>69.19436529898229</v>
+        <v>69.19436529898228</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35551,7 +35551,7 @@
         <v>4401</v>
       </c>
       <c r="B4401">
-        <v>44.30003206197164</v>
+        <v>44.30003206197163</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>36.71300901310673</v>
+        <v>36.71300901310672</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>46.02475512449365</v>
+        <v>46.02475512449364</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>49.81064680192091</v>
+        <v>49.8106468019209</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>62.27085508164667</v>
+        <v>62.27085508164666</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>61.53260913525874</v>
+        <v>61.53260913525873</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>45.31405785573989</v>
+        <v>45.31405785573988</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>52.9010809046048</v>
+        <v>52.90108090460479</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>53.21964912362968</v>
+        <v>53.21964912362967</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>50.39913344755289</v>
+        <v>50.39913344755288</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>49.05921265879322</v>
+        <v>49.05921265879321</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>65.8674228680987</v>
+        <v>65.86742286809869</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>54.64368130048516</v>
+        <v>54.64368130048515</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>55.08944235028906</v>
+        <v>55.08944235028905</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>58.15906840922799</v>
+        <v>58.15906840922798</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>68.0425961170432</v>
+        <v>68.04259611704319</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>87.09983347703584</v>
+        <v>87.09983347703583</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>74.56459901141278</v>
+        <v>74.56459901141277</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>95.85269311769558</v>
+        <v>95.85269311769557</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>98.93111130779435</v>
+        <v>98.93111130779434</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>12.41639415944589</v>
+        <v>12.41639415944588</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>25.02469123500722</v>
+        <v>25.02469123500721</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>65.49258500965084</v>
+        <v>65.49258500965082</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>60.61529678424873</v>
+        <v>60.61529678424872</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>70.08119826197152</v>
+        <v>70.08119826197151</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>67.07956468400202</v>
+        <v>67.07956468400201</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>42.46570043099028</v>
+        <v>42.46570043099027</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>51.44891390803783</v>
+        <v>51.44891390803782</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>43.10019922969209</v>
+        <v>43.10019922969208</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>60.86733787749749</v>
+        <v>60.86733787749748</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>59.38967370056698</v>
+        <v>59.38967370056697</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>69.47717885129049</v>
+        <v>69.47717885129047</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>59.5760668811556</v>
+        <v>59.57606688115559</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>25.36743781472167</v>
+        <v>25.36743781472166</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>50.52896391767987</v>
+        <v>50.52896391767986</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>45.37501663178145</v>
+        <v>45.37501663178144</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>54.49597349699984</v>
+        <v>54.49597349699983</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>77.10786948491594</v>
+        <v>77.10786948491592</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>31.27448974866814</v>
+        <v>31.27448974866813</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>6.670120997309023</v>
+        <v>6.670120997309022</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>23.03025489560517</v>
+        <v>23.03025489560516</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>64.26197971831185</v>
+        <v>64.26197971831184</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>43.65791341626463</v>
+        <v>43.65791341626462</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>53.43593555016175</v>
+        <v>53.43593555016174</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>13.23939625021468</v>
+        <v>13.23939625021467</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>2.597916499371949</v>
+        <v>2.597916499371948</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>37.11803318853671</v>
+        <v>37.1180331885367</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>38.90899030579619</v>
+        <v>38.90899030579618</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>47.23250087481706</v>
+        <v>47.23250087481705</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>3.956224565097233</v>
+        <v>3.956224565097232</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>25.07457192578738</v>
+        <v>25.07457192578737</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>9.296066810818544</v>
+        <v>9.296066810818539</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>29.10787417405255</v>
+        <v>29.10787417405254</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
